--- a/HONDURAS/Delitos/Femicidios 2009-2019.xlsx
+++ b/HONDURAS/Delitos/Femicidios 2009-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinamario/DATA INTELLIGENCE Dropbox/Diseño DATA's/BBDD CENTROAMERICA/HONDURAS/Delitos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3747F03A-AB53-444C-912C-70A5B3B9F8C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA89AF2-09C2-499A-86B3-B5FAED36C5D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="460" windowWidth="15160" windowHeight="16520" xr2:uid="{C59FEAF4-D37D-4849-A487-67D078E251C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C59FEAF4-D37D-4849-A487-67D078E251C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2009-2017" sheetId="8" r:id="rId1"/>
@@ -159,10 +159,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{41F423A2-865A-1E42-BEC7-9DF11AC57D07}" name="Tabla3" displayName="Tabla3" ref="A3:B14" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{41F423A2-865A-1E42-BEC7-9DF11AC57D07}" name="femicidios_2009_2019" displayName="femicidios_2009_2019" ref="A3:B14" totalsRowShown="0">
   <autoFilter ref="A3:B14" xr:uid="{61399BD8-5579-7B47-BBC0-23ED3921645D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6FE090F7-18E2-E94F-89FE-531154DF8FBA}" name="Año"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC518477-CBF0-394C-84B7-DA9911053BA5}" name="Tabla1" displayName="Tabla1" ref="A3:B15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC518477-CBF0-394C-84B7-DA9911053BA5}" name="femicidios_2018_mes" displayName="femicidios_2018_mes" ref="A3:B15" totalsRowShown="0">
   <autoFilter ref="A3:B15" xr:uid="{1E0D2100-AC27-AB43-B1FB-B19D399F3197}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{679B2C42-DA39-9A4A-B05F-B28C263D8D63}" name="Mes"/>
@@ -502,22 +502,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9B8895-C892-DA45-B661-0822D4C60063}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -533,7 +533,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -541,7 +541,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -549,7 +549,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -557,7 +557,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -565,7 +565,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -573,7 +573,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -581,7 +581,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -589,7 +589,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -597,7 +597,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -608,7 +608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -616,13 +616,13 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -644,22 +644,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCDAFC3-7443-5A43-A772-62DDF3C229C7}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -675,7 +675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -683,7 +683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -691,7 +691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -707,7 +707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -715,7 +715,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -723,7 +723,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -731,7 +731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -739,7 +739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -747,7 +747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -755,7 +755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/HONDURAS/Delitos/Femicidios 2009-2019.xlsx
+++ b/HONDURAS/Delitos/Femicidios 2009-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA89AF2-09C2-499A-86B3-B5FAED36C5D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9203D5C-71A4-4301-ACBC-D57DDAA869D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C59FEAF4-D37D-4849-A487-67D078E251C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C59FEAF4-D37D-4849-A487-67D078E251C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2009-2017" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Femicidios en Honduras</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>https://www.laprensa.hn/honduras/1346361-410/honduras-segundo-lugar-en-feminicidios</t>
+  </si>
+  <si>
+    <t>No hay registro</t>
   </si>
 </sst>
 </file>
@@ -157,12 +160,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -182,8 +186,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{41F423A2-865A-1E42-BEC7-9DF11AC57D07}" name="femicidios_2009_2019" displayName="femicidios_2009_2019" ref="A3:B14" totalsRowShown="0">
-  <autoFilter ref="A3:B14" xr:uid="{61399BD8-5579-7B47-BBC0-23ED3921645D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{41F423A2-865A-1E42-BEC7-9DF11AC57D07}" name="femicidios_2009_2019" displayName="femicidios_2009_2019" ref="A3:B15" totalsRowShown="0">
+  <autoFilter ref="A3:B15" xr:uid="{61399BD8-5579-7B47-BBC0-23ED3921645D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6FE090F7-18E2-E94F-89FE-531154DF8FBA}" name="Año"/>
     <tableColumn id="2" xr3:uid="{FE7113F1-472F-4046-A201-F8BF10459F4E}" name="Cantidad de Femicidios"/>
@@ -500,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9B8895-C892-DA45-B661-0822D4C60063}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -527,82 +531,82 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2009</v>
-      </c>
-      <c r="B4">
-        <v>363</v>
+        <v>2008</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B5">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B6">
-        <v>512</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B7">
-        <v>606</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B8">
-        <v>636</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B9">
-        <v>526</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B10">
-        <v>478</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B11">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B12">
-        <v>388</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B13">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -610,19 +614,27 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>2018</v>
+      </c>
+      <c r="B14">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>2019</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -631,7 +643,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1" xr:uid="{99B6C754-D95E-DF4D-9751-9E88FDD2479B}"/>
+    <hyperlink ref="A18" r:id="rId1" xr:uid="{99B6C754-D95E-DF4D-9751-9E88FDD2479B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -644,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCDAFC3-7443-5A43-A772-62DDF3C229C7}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/HONDURAS/Delitos/Femicidios 2009-2019.xlsx
+++ b/HONDURAS/Delitos/Femicidios 2009-2019.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9203D5C-71A4-4301-ACBC-D57DDAA869D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061E2FD4-C3DE-4B00-A589-DF87231E7F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C59FEAF4-D37D-4849-A487-67D078E251C4}"/>
+    <workbookView minimized="1" xWindow="15495" yWindow="4560" windowWidth="13650" windowHeight="11385" activeTab="1" xr2:uid="{C59FEAF4-D37D-4849-A487-67D078E251C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2009-2017" sheetId="8" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Femicidios en Honduras</t>
   </si>
@@ -100,9 +101,6 @@
   </si>
   <si>
     <t>https://www.laprensa.hn/honduras/1346361-410/honduras-segundo-lugar-en-feminicidios</t>
-  </si>
-  <si>
-    <t>No hay registro</t>
   </si>
 </sst>
 </file>
@@ -506,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9B8895-C892-DA45-B661-0822D4C60063}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -533,9 +531,7 @@
       <c r="A4">
         <v>2008</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -656,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCDAFC3-7443-5A43-A772-62DDF3C229C7}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/HONDURAS/Delitos/Femicidios 2009-2019.xlsx
+++ b/HONDURAS/Delitos/Femicidios 2009-2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Delitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\HONDURAS\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061E2FD4-C3DE-4B00-A589-DF87231E7F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4226FFDC-443D-4BC8-B727-B4C1DFC84486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="15495" yWindow="4560" windowWidth="13650" windowHeight="11385" activeTab="1" xr2:uid="{C59FEAF4-D37D-4849-A487-67D078E251C4}"/>
+    <workbookView xWindow="3165" yWindow="1875" windowWidth="15375" windowHeight="7875" xr2:uid="{C59FEAF4-D37D-4849-A487-67D078E251C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2009-2017" sheetId="8" r:id="rId1"/>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -158,13 +149,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -184,8 +174,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{41F423A2-865A-1E42-BEC7-9DF11AC57D07}" name="femicidios_2009_2019" displayName="femicidios_2009_2019" ref="A3:B15" totalsRowShown="0">
-  <autoFilter ref="A3:B15" xr:uid="{61399BD8-5579-7B47-BBC0-23ED3921645D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{41F423A2-865A-1E42-BEC7-9DF11AC57D07}" name="femicidios_2009_2019" displayName="femicidios_2009_2019" ref="A3:B14" totalsRowShown="0">
+  <autoFilter ref="A3:B14" xr:uid="{61399BD8-5579-7B47-BBC0-23ED3921645D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6FE090F7-18E2-E94F-89FE-531154DF8FBA}" name="Año"/>
     <tableColumn id="2" xr3:uid="{FE7113F1-472F-4046-A201-F8BF10459F4E}" name="Cantidad de Femicidios"/>
@@ -502,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9B8895-C892-DA45-B661-0822D4C60063}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -529,108 +519,102 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2008</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>2009</v>
+      </c>
+      <c r="B4">
+        <v>363</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B5">
-        <v>363</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B6">
-        <v>385</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B7">
-        <v>512</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B8">
-        <v>606</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B9">
-        <v>636</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B10">
-        <v>526</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B11">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B12">
-        <v>468</v>
+        <v>388</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B13">
-        <v>388</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B14">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2019</v>
-      </c>
-      <c r="B15">
         <v>390</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -639,7 +623,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" xr:uid="{99B6C754-D95E-DF4D-9751-9E88FDD2479B}"/>
+    <hyperlink ref="A17" r:id="rId1" xr:uid="{99B6C754-D95E-DF4D-9751-9E88FDD2479B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -652,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCDAFC3-7443-5A43-A772-62DDF3C229C7}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
